--- a/Свободные помещения.xlsx
+++ b/Свободные помещения.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Свободные помещения</t>
   </si>
   <si>
+    <t>Дата создания</t>
+  </si>
+  <si>
     <t>Наименование объекта</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>73:24:030206:32</t>
-  </si>
-  <si>
-    <t>Объект 6</t>
   </si>
   <si>
     <t>Объект 7</t>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,30 +437,33 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" s="1">
-        <v>44601.40152190596</v>
+        <v>44607.51934435357</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -469,290 +472,273 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>421</v>
+        <v>312</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>534</v>
+        <v>345</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>345</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>345</v>
+        <v>64</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>345</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>345</v>
+        <v>643</v>
       </c>
       <c r="C11">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>643</v>
+        <v>534</v>
       </c>
       <c r="C12">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>534</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>534</v>
+        <v>324</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>324</v>
+        <v>1234</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>1234</v>
+        <v>543</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>543</v>
+        <v>645</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>645</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>17</v>
+      <c r="B20">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
